--- a/results/worst_stocks_2023.06.01-2023.06.15.xlsx
+++ b/results/worst_stocks_2023.06.01-2023.06.15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,87 +452,87 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>두산에너빌리티</t>
+          <t>HD한국조선해양</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>한국경제</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>블록딜 발표 두산밥캣 하루만에  급락</t>
+          <t xml:space="preserve">운임지수 급락 조선엔 다행글로벌 선사 인도 늦어져도 </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>두산에너빌리티</t>
+          <t>한국전력</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>머니투데이</t>
+          <t>이데일리언론사 선정</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>억 실탄 확보한 두산수소 밸류체인 구축에 쏟는다</t>
+          <t>한국전력 최악의 적자 딛고 주가 부진 마침표 찍나</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>두산에너빌리티</t>
+          <t>한국전력</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>한국경제언론사 선정</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>두산에너빌 밥캣지분 매각 수소터빈 미래산업 투자</t>
+          <t>취재수첩 한전 알짜자산 매각 부메랑 될 수도</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HD한국조선해양</t>
+          <t>한국전력</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>한국경제</t>
+          <t>세계일보언론사 선정</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">운임지수 급락 조선엔 다행글로벌 선사 인도 늦어져도 </t>
+          <t>여름철 냉방비 우려에 한전 분기 전기료 동결</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -541,18 +541,18 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>이데일리언론사 선정</t>
+          <t>매일경제언론사 선정</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>한국전력 최악의 적자 딛고 주가 부진 마침표 찍나</t>
+          <t>단독 조 적자 한전 요르단 발전소 매각 추진분기 전기료는 동결</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -561,18 +561,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>한국경제언론사 선정</t>
+          <t>디지털타임스</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>취재수첩 한전 알짜자산 매각 부메랑 될 수도</t>
+          <t>서부발전 중형터빈 수소발전 혼소율 세계 첫  돌파</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -581,18 +581,18 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>세계일보언론사 선정</t>
+          <t>부산일보언론사 선정</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>여름철 냉방비 우려에 한전 분기 전기료 동결</t>
+          <t>냉방비 폭탄 피하자에너지캐시백 가입 만세대 돌파</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -601,18 +601,18 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>매일경제언론사 선정</t>
+          <t>세계일보언론사 선정</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>단독 조 적자 한전 요르단 발전소 매각 추진분기 전기료는 동결</t>
+          <t>전기요금 동결 가능성 속 차기 한전사장 외부 인사 주목</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -621,18 +621,18 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>디지털타임스</t>
+          <t>서울경제</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>서부발전 중형터빈 수소발전 혼소율 세계 첫  돌파</t>
+          <t>강석훈 산은 회장  이르면 연내 지분 매각</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -641,18 +641,18 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>부산일보언론사 선정</t>
+          <t>한국경제</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>냉방비 폭탄 피하자에너지캐시백 가입 만세대 돌파</t>
+          <t>산업은행 후순위채 억 추가 발행 매각 연내 가능할 것</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -661,18 +661,18 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>세계일보언론사 선정</t>
+          <t>헤럴드경제</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>전기요금 동결 가능성 속 차기 한전사장 외부 인사 주목</t>
+          <t>주택용 에너지캐시백 참여세대 만 돌파</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -681,18 +681,18 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>서울경제</t>
+          <t>조선일보</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>강석훈 산은 회장  이르면 연내 지분 매각</t>
+          <t>공공기관 직원 특혜 대출 금지에도 곳 중 곳이 지침 위반</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -701,18 +701,18 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>한국경제</t>
+          <t>조선일보</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>산업은행 후순위채 억 추가 발행 매각 연내 가능할 것</t>
+          <t>공공기관 직원 특혜 대출 금지에도 곳 중 곳이 지침 위반</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -721,70 +721,10 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>헤럴드경제</t>
+          <t>중앙SUNDAY</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
-        <is>
-          <t>주택용 에너지캐시백 참여세대 만 돌파</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>한국전력</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>조선일보</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>공공기관 직원 특혜 대출 금지에도 곳 중 곳이 지침 위반</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>한국전력</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>조선일보</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>공공기관 직원 특혜 대출 금지에도 곳 중 곳이 지침 위반</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>한국전력</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>중앙SUNDAY</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
         <is>
           <t>탈원전 직격탄 맞은 한전 전세사기 뒷수습으로 적자 난  낙제점</t>
         </is>
